--- a/references/configurations.xlsx
+++ b/references/configurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pschicchi\Documents\GitHub\weather-forecasts\references\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hedgepointglobal.sharepoint.com/sites/Hedgepoint-MarketIntelligence/Shared Documents/RMI/Workspace/weather-forecasts/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739A532-5270-44F0-8B6C-53FBC045B90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E739A532-5270-44F0-8B6C-53FBC045B90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B1E358-24B4-4294-9FF6-5A5BDCB88173}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4785" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="images" sheetId="5" r:id="rId3"/>
     <sheet name="labels" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">labels!$A$1:$E$25</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="83">
   <si>
     <t>region</t>
   </si>
@@ -264,24 +267,6 @@
     <t>Anom. de Precipitación (in/día)</t>
   </si>
   <si>
-    <t>Precipitation Anomaly (°C)</t>
-  </si>
-  <si>
-    <t>Precipitation Anomaly (°F)</t>
-  </si>
-  <si>
-    <t>Anom. de Precipitação (°C)</t>
-  </si>
-  <si>
-    <t>Anom. de Precipitación (°C)</t>
-  </si>
-  <si>
-    <t>Anom. de Precipitação (°F)</t>
-  </si>
-  <si>
-    <t>Anom. de Precipitación (°F)</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -316,6 +301,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Temperature Anomaly (°C)</t>
+  </si>
+  <si>
+    <t>Temperature Anomaly (°F)</t>
+  </si>
+  <si>
+    <t>Anom. de Temperatura (°C)</t>
+  </si>
+  <si>
+    <t>Anom. de Temperatura (°F)</t>
   </si>
 </sst>
 </file>
@@ -646,12 +643,12 @@
       <selection activeCell="B10" sqref="B10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -680,7 +677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -711,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -742,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -773,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -804,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -835,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -866,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -897,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -928,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -972,12 +969,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -985,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -993,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1009,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1017,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1025,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1033,15 +1030,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1049,15 +1046,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1065,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1082,42 +1079,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC0E62-3784-4140-B137-130D5ED12C51}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="4" width="16.21875" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" t="s">
-        <v>81</v>
-      </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I1" t="s">
         <v>44</v>
@@ -1129,7 +1126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1137,7 +1134,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -1156,7 +1153,7 @@
         <v>Precipitation (in/day)</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.CONCAT(B2,"-",C2,IF(D2,"_anom",""),"-",E2,"_to_",F2,"-",G2,"-",A2,".png")</f>
+        <f t="shared" ref="I2:I33" si="0">_xlfn.CONCAT(B2,"-",C2,IF(D2,"_anom",""),"-",E2,"_to_",F2,"-",G2,"-",A2,".png")</f>
         <v>north_america-precip-1_to_14-imperial-en.png</v>
       </c>
       <c r="J2">
@@ -1166,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1174,7 +1171,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1193,7 +1190,7 @@
         <v>Precipitation Anomaly (in/day)</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.CONCAT(B3,"-",C3,IF(D3,"_anom",""),"-",E3,"_to_",F3,"-",G3,"-",A3,".png")</f>
+        <f t="shared" si="0"/>
         <v>north_america-precip_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J3">
@@ -1203,10 +1200,10 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -1233,18 +1230,18 @@
         <v>Temperature (°F)</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.CONCAT(B4,"-",C4,IF(D4,"_anom",""),"-",E4,"_to_",F4,"-",G4,"-",A4,".png")</f>
+        <f t="shared" si="0"/>
         <v>north_america-tavg-1_to_14-imperial-en.png</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J29" si="0">J2+1</f>
+        <f t="shared" ref="J4:J29" si="1">J2+1</f>
         <v>5</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1252,7 +1249,7 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1268,21 +1265,21 @@
       </c>
       <c r="H5" t="str" cm="1">
         <f t="array" ref="H5">INDEX(labels!$E$1:$E$100,MATCH(C5&amp;D5&amp;G5&amp;A5,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Precipitation Anomaly (°F)</v>
+        <v>Temperature Anomaly (°F)</v>
       </c>
       <c r="I5" t="str">
-        <f>_xlfn.CONCAT(B5,"-",C5,IF(D5,"_anom",""),"-",E5,"_to_",F5,"-",G5,"-",A5,".png")</f>
+        <f t="shared" si="0"/>
         <v>north_america-tavg_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1309,18 +1306,18 @@
         <v>Precipitation (in/day)</v>
       </c>
       <c r="I6" t="str">
-        <f>_xlfn.CONCAT(B6,"-",C6,IF(D6,"_anom",""),"-",E6,"_to_",F6,"-",G6,"-",A6,".png")</f>
+        <f t="shared" si="0"/>
         <v>central_america-precip-1_to_14-imperial-en.png</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1328,7 +1325,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -1347,18 +1344,18 @@
         <v>Precipitation Anomaly (in/day)</v>
       </c>
       <c r="I7" t="str">
-        <f>_xlfn.CONCAT(B7,"-",C7,IF(D7,"_anom",""),"-",E7,"_to_",F7,"-",G7,"-",A7,".png")</f>
+        <f t="shared" si="0"/>
         <v>central_america-precip_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1366,7 +1363,7 @@
         <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1385,18 +1382,18 @@
         <v>Temperature (°F)</v>
       </c>
       <c r="I8" t="str">
-        <f>_xlfn.CONCAT(B8,"-",C8,IF(D8,"_anom",""),"-",E8,"_to_",F8,"-",G8,"-",A8,".png")</f>
+        <f t="shared" si="0"/>
         <v>central_america-tavg-1_to_14-imperial-en.png</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1404,7 +1401,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1420,21 +1417,21 @@
       </c>
       <c r="H9" t="str" cm="1">
         <f t="array" ref="H9">INDEX(labels!$E$1:$E$100,MATCH(C9&amp;D9&amp;G9&amp;A9,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Precipitation Anomaly (°F)</v>
+        <v>Temperature Anomaly (°F)</v>
       </c>
       <c r="I9" t="str">
-        <f>_xlfn.CONCAT(B9,"-",C9,IF(D9,"_anom",""),"-",E9,"_to_",F9,"-",G9,"-",A9,".png")</f>
+        <f t="shared" si="0"/>
         <v>central_america-tavg_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1442,7 +1439,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1461,18 +1458,18 @@
         <v>Precipitation (in/day)</v>
       </c>
       <c r="I10" t="str">
-        <f>_xlfn.CONCAT(B10,"-",C10,IF(D10,"_anom",""),"-",E10,"_to_",F10,"-",G10,"-",A10,".png")</f>
+        <f t="shared" si="0"/>
         <v>south_america-precip-1_to_14-imperial-en.png</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -1499,18 +1496,18 @@
         <v>Precipitation Anomaly (in/day)</v>
       </c>
       <c r="I11" t="str">
-        <f>_xlfn.CONCAT(B11,"-",C11,IF(D11,"_anom",""),"-",E11,"_to_",F11,"-",G11,"-",A11,".png")</f>
+        <f t="shared" si="0"/>
         <v>south_america-precip_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1537,18 +1534,18 @@
         <v>Temperature (°F)</v>
       </c>
       <c r="I12" t="str">
-        <f>_xlfn.CONCAT(B12,"-",C12,IF(D12,"_anom",""),"-",E12,"_to_",F12,"-",G12,"-",A12,".png")</f>
+        <f t="shared" si="0"/>
         <v>south_america-tavg-1_to_14-imperial-en.png</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1556,7 +1553,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1572,21 +1569,21 @@
       </c>
       <c r="H13" t="str" cm="1">
         <f t="array" ref="H13">INDEX(labels!$E$1:$E$100,MATCH(C13&amp;D13&amp;G13&amp;A13,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Precipitation Anomaly (°F)</v>
+        <v>Temperature Anomaly (°F)</v>
       </c>
       <c r="I13" t="str">
-        <f>_xlfn.CONCAT(B13,"-",C13,IF(D13,"_anom",""),"-",E13,"_to_",F13,"-",G13,"-",A13,".png")</f>
+        <f t="shared" si="0"/>
         <v>south_america-tavg_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1594,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1613,18 +1610,18 @@
         <v>Precipitation (in/day)</v>
       </c>
       <c r="I14" t="str">
-        <f>_xlfn.CONCAT(B14,"-",C14,IF(D14,"_anom",""),"-",E14,"_to_",F14,"-",G14,"-",A14,".png")</f>
+        <f t="shared" si="0"/>
         <v>europe-precip-1_to_14-imperial-en.png</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1632,7 +1629,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1651,18 +1648,18 @@
         <v>Precipitation Anomaly (in/day)</v>
       </c>
       <c r="I15" t="str">
-        <f>_xlfn.CONCAT(B15,"-",C15,IF(D15,"_anom",""),"-",E15,"_to_",F15,"-",G15,"-",A15,".png")</f>
+        <f t="shared" si="0"/>
         <v>europe-precip_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1670,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1689,18 +1686,18 @@
         <v>Temperature (°F)</v>
       </c>
       <c r="I16" t="str">
-        <f>_xlfn.CONCAT(B16,"-",C16,IF(D16,"_anom",""),"-",E16,"_to_",F16,"-",G16,"-",A16,".png")</f>
+        <f t="shared" si="0"/>
         <v>europe-tavg-1_to_14-imperial-en.png</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1708,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -1724,21 +1721,21 @@
       </c>
       <c r="H17" t="str" cm="1">
         <f t="array" ref="H17">INDEX(labels!$E$1:$E$100,MATCH(C17&amp;D17&amp;G17&amp;A17,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Precipitation Anomaly (°F)</v>
+        <v>Temperature Anomaly (°F)</v>
       </c>
       <c r="I17" t="str">
-        <f>_xlfn.CONCAT(B17,"-",C17,IF(D17,"_anom",""),"-",E17,"_to_",F17,"-",G17,"-",A17,".png")</f>
+        <f t="shared" si="0"/>
         <v>europe-tavg_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -1765,18 +1762,18 @@
         <v>Precipitation (in/day)</v>
       </c>
       <c r="I18" t="str">
-        <f>_xlfn.CONCAT(B18,"-",C18,IF(D18,"_anom",""),"-",E18,"_to_",F18,"-",G18,"-",A18,".png")</f>
+        <f t="shared" si="0"/>
         <v>india-precip-1_to_14-imperial-en.png</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1784,7 +1781,7 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -1803,18 +1800,18 @@
         <v>Precipitation Anomaly (in/day)</v>
       </c>
       <c r="I19" t="str">
-        <f>_xlfn.CONCAT(B19,"-",C19,IF(D19,"_anom",""),"-",E19,"_to_",F19,"-",G19,"-",A19,".png")</f>
+        <f t="shared" si="0"/>
         <v>india-precip_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1822,7 +1819,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
@@ -1841,18 +1838,18 @@
         <v>Temperature (°F)</v>
       </c>
       <c r="I20" t="str">
-        <f>_xlfn.CONCAT(B20,"-",C20,IF(D20,"_anom",""),"-",E20,"_to_",F20,"-",G20,"-",A20,".png")</f>
+        <f t="shared" si="0"/>
         <v>india-tavg-1_to_14-imperial-en.png</v>
       </c>
       <c r="J20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1860,7 +1857,7 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -1876,21 +1873,21 @@
       </c>
       <c r="H21" t="str" cm="1">
         <f t="array" ref="H21">INDEX(labels!$E$1:$E$100,MATCH(C21&amp;D21&amp;G21&amp;A21,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Precipitation Anomaly (°F)</v>
+        <v>Temperature Anomaly (°F)</v>
       </c>
       <c r="I21" t="str">
-        <f>_xlfn.CONCAT(B21,"-",C21,IF(D21,"_anom",""),"-",E21,"_to_",F21,"-",G21,"-",A21,".png")</f>
+        <f t="shared" si="0"/>
         <v>india-tavg_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -1917,18 +1914,18 @@
         <v>Precipitation (in/day)</v>
       </c>
       <c r="I22" t="str">
-        <f>_xlfn.CONCAT(B22,"-",C22,IF(D22,"_anom",""),"-",E22,"_to_",F22,"-",G22,"-",A22,".png")</f>
+        <f t="shared" si="0"/>
         <v>southeast_asia-precip-1_to_14-imperial-en.png</v>
       </c>
       <c r="J22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1936,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -1955,18 +1952,18 @@
         <v>Precipitation Anomaly (in/day)</v>
       </c>
       <c r="I23" t="str">
-        <f>_xlfn.CONCAT(B23,"-",C23,IF(D23,"_anom",""),"-",E23,"_to_",F23,"-",G23,"-",A23,".png")</f>
+        <f t="shared" si="0"/>
         <v>southeast_asia-precip_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
@@ -1993,18 +1990,18 @@
         <v>Temperature (°F)</v>
       </c>
       <c r="I24" t="str">
-        <f>_xlfn.CONCAT(B24,"-",C24,IF(D24,"_anom",""),"-",E24,"_to_",F24,"-",G24,"-",A24,".png")</f>
+        <f t="shared" si="0"/>
         <v>southeast_asia-tavg-1_to_14-imperial-en.png</v>
       </c>
       <c r="J24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2012,7 +2009,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -2028,21 +2025,21 @@
       </c>
       <c r="H25" t="str" cm="1">
         <f t="array" ref="H25">INDEX(labels!$E$1:$E$100,MATCH(C25&amp;D25&amp;G25&amp;A25,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Precipitation Anomaly (°F)</v>
+        <v>Temperature Anomaly (°F)</v>
       </c>
       <c r="I25" t="str">
-        <f>_xlfn.CONCAT(B25,"-",C25,IF(D25,"_anom",""),"-",E25,"_to_",F25,"-",G25,"-",A25,".png")</f>
+        <f t="shared" si="0"/>
         <v>southeast_asia-tavg_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2050,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -2069,18 +2066,18 @@
         <v>Precipitation (in/day)</v>
       </c>
       <c r="I26" t="str">
-        <f>_xlfn.CONCAT(B26,"-",C26,IF(D26,"_anom",""),"-",E26,"_to_",F26,"-",G26,"-",A26,".png")</f>
+        <f t="shared" si="0"/>
         <v>australia-precip-1_to_14-imperial-en.png</v>
       </c>
       <c r="J26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2088,7 +2085,7 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2107,18 +2104,18 @@
         <v>Precipitation Anomaly (in/day)</v>
       </c>
       <c r="I27" t="str">
-        <f>_xlfn.CONCAT(B27,"-",C27,IF(D27,"_anom",""),"-",E27,"_to_",F27,"-",G27,"-",A27,".png")</f>
+        <f t="shared" si="0"/>
         <v>australia-precip_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2126,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -2145,18 +2142,18 @@
         <v>Temperature (°F)</v>
       </c>
       <c r="I28" t="str">
-        <f>_xlfn.CONCAT(B28,"-",C28,IF(D28,"_anom",""),"-",E28,"_to_",F28,"-",G28,"-",A28,".png")</f>
+        <f t="shared" si="0"/>
         <v>australia-tavg-1_to_14-imperial-en.png</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2164,7 +2161,7 @@
         <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2180,21 +2177,21 @@
       </c>
       <c r="H29" t="str" cm="1">
         <f t="array" ref="H29">INDEX(labels!$E$1:$E$100,MATCH(C29&amp;D29&amp;G29&amp;A29,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Precipitation Anomaly (°F)</v>
+        <v>Temperature Anomaly (°F)</v>
       </c>
       <c r="I29" t="str">
-        <f>_xlfn.CONCAT(B29,"-",C29,IF(D29,"_anom",""),"-",E29,"_to_",F29,"-",G29,"-",A29,".png")</f>
+        <f t="shared" si="0"/>
         <v>australia-tavg_anom-1_to_14-imperial-en.png</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2202,7 +2199,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -2221,7 +2218,7 @@
         <v>Precipitação (mm/dia)</v>
       </c>
       <c r="I30" t="str">
-        <f>_xlfn.CONCAT(B30,"-",C30,IF(D30,"_anom",""),"-",E30,"_to_",F30,"-",G30,"-",A30,".png")</f>
+        <f t="shared" si="0"/>
         <v>north_america-precip-1_to_14-metric-pt.png</v>
       </c>
       <c r="J30">
@@ -2231,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2239,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
@@ -2258,7 +2255,7 @@
         <v>Anom. de Precipitação (mm/dia)</v>
       </c>
       <c r="I31" t="str">
-        <f>_xlfn.CONCAT(B31,"-",C31,IF(D31,"_anom",""),"-",E31,"_to_",F31,"-",G31,"-",A31,".png")</f>
+        <f t="shared" si="0"/>
         <v>north_america-precip_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J31">
@@ -2268,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2276,7 +2273,7 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -2295,18 +2292,18 @@
         <v>Temperatura (°C)</v>
       </c>
       <c r="I32" t="str">
-        <f>_xlfn.CONCAT(B32,"-",C32,IF(D32,"_anom",""),"-",E32,"_to_",F32,"-",G32,"-",A32,".png")</f>
+        <f t="shared" si="0"/>
         <v>north_america-tavg-1_to_14-metric-pt.png</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J57" si="1">J30+1</f>
+        <f t="shared" ref="J32:J57" si="2">J30+1</f>
         <v>5</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
@@ -2330,21 +2327,21 @@
       </c>
       <c r="H33" t="str" cm="1">
         <f t="array" ref="H33">INDEX(labels!$E$1:$E$100,MATCH(C33&amp;D33&amp;G33&amp;A33,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Anom. de Precipitação (°C)</v>
+        <v>Anom. de Temperatura (°C)</v>
       </c>
       <c r="I33" t="str">
-        <f>_xlfn.CONCAT(B33,"-",C33,IF(D33,"_anom",""),"-",E33,"_to_",F33,"-",G33,"-",A33,".png")</f>
+        <f t="shared" si="0"/>
         <v>north_america-tavg_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2352,7 +2349,7 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D34" t="b">
         <v>0</v>
@@ -2371,18 +2368,18 @@
         <v>Precipitação (mm/dia)</v>
       </c>
       <c r="I34" t="str">
-        <f>_xlfn.CONCAT(B34,"-",C34,IF(D34,"_anom",""),"-",E34,"_to_",F34,"-",G34,"-",A34,".png")</f>
+        <f t="shared" ref="I34:I57" si="3">_xlfn.CONCAT(B34,"-",C34,IF(D34,"_anom",""),"-",E34,"_to_",F34,"-",G34,"-",A34,".png")</f>
         <v>central_america-precip-1_to_14-metric-pt.png</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2390,7 +2387,7 @@
         <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
@@ -2409,18 +2406,18 @@
         <v>Anom. de Precipitação (mm/dia)</v>
       </c>
       <c r="I35" t="str">
-        <f>_xlfn.CONCAT(B35,"-",C35,IF(D35,"_anom",""),"-",E35,"_to_",F35,"-",G35,"-",A35,".png")</f>
+        <f t="shared" si="3"/>
         <v>central_america-precip_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -2447,18 +2444,18 @@
         <v>Temperatura (°C)</v>
       </c>
       <c r="I36" t="str">
-        <f>_xlfn.CONCAT(B36,"-",C36,IF(D36,"_anom",""),"-",E36,"_to_",F36,"-",G36,"-",A36,".png")</f>
+        <f t="shared" si="3"/>
         <v>central_america-tavg-1_to_14-metric-pt.png</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2466,7 +2463,7 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
@@ -2482,21 +2479,21 @@
       </c>
       <c r="H37" t="str" cm="1">
         <f t="array" ref="H37">INDEX(labels!$E$1:$E$100,MATCH(C37&amp;D37&amp;G37&amp;A37,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Anom. de Precipitação (°C)</v>
+        <v>Anom. de Temperatura (°C)</v>
       </c>
       <c r="I37" t="str">
-        <f>_xlfn.CONCAT(B37,"-",C37,IF(D37,"_anom",""),"-",E37,"_to_",F37,"-",G37,"-",A37,".png")</f>
+        <f t="shared" si="3"/>
         <v>central_america-tavg_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2504,7 +2501,7 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D38" t="b">
         <v>0</v>
@@ -2523,18 +2520,18 @@
         <v>Precipitação (mm/dia)</v>
       </c>
       <c r="I38" t="str">
-        <f>_xlfn.CONCAT(B38,"-",C38,IF(D38,"_anom",""),"-",E38,"_to_",F38,"-",G38,"-",A38,".png")</f>
+        <f t="shared" si="3"/>
         <v>south_america-precip-1_to_14-metric-pt.png</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2542,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
@@ -2561,18 +2558,18 @@
         <v>Anom. de Precipitação (mm/dia)</v>
       </c>
       <c r="I39" t="str">
-        <f>_xlfn.CONCAT(B39,"-",C39,IF(D39,"_anom",""),"-",E39,"_to_",F39,"-",G39,"-",A39,".png")</f>
+        <f t="shared" si="3"/>
         <v>south_america-precip_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2580,7 +2577,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -2599,18 +2596,18 @@
         <v>Temperatura (°C)</v>
       </c>
       <c r="I40" t="str">
-        <f>_xlfn.CONCAT(B40,"-",C40,IF(D40,"_anom",""),"-",E40,"_to_",F40,"-",G40,"-",A40,".png")</f>
+        <f t="shared" si="3"/>
         <v>south_america-tavg-1_to_14-metric-pt.png</v>
       </c>
       <c r="J40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2634,21 +2631,21 @@
       </c>
       <c r="H41" t="str" cm="1">
         <f t="array" ref="H41">INDEX(labels!$E$1:$E$100,MATCH(C41&amp;D41&amp;G41&amp;A41,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Anom. de Precipitação (°C)</v>
+        <v>Anom. de Temperatura (°C)</v>
       </c>
       <c r="I41" t="str">
-        <f>_xlfn.CONCAT(B41,"-",C41,IF(D41,"_anom",""),"-",E41,"_to_",F41,"-",G41,"-",A41,".png")</f>
+        <f t="shared" si="3"/>
         <v>south_america-tavg_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2656,7 +2653,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -2675,18 +2672,18 @@
         <v>Precipitação (mm/dia)</v>
       </c>
       <c r="I42" t="str">
-        <f>_xlfn.CONCAT(B42,"-",C42,IF(D42,"_anom",""),"-",E42,"_to_",F42,"-",G42,"-",A42,".png")</f>
+        <f t="shared" si="3"/>
         <v>europe-precip-1_to_14-metric-pt.png</v>
       </c>
       <c r="J42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2694,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2713,18 +2710,18 @@
         <v>Anom. de Precipitação (mm/dia)</v>
       </c>
       <c r="I43" t="str">
-        <f>_xlfn.CONCAT(B43,"-",C43,IF(D43,"_anom",""),"-",E43,"_to_",F43,"-",G43,"-",A43,".png")</f>
+        <f t="shared" si="3"/>
         <v>europe-precip_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2732,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -2751,18 +2748,18 @@
         <v>Temperatura (°C)</v>
       </c>
       <c r="I44" t="str">
-        <f>_xlfn.CONCAT(B44,"-",C44,IF(D44,"_anom",""),"-",E44,"_to_",F44,"-",G44,"-",A44,".png")</f>
+        <f t="shared" si="3"/>
         <v>europe-tavg-1_to_14-metric-pt.png</v>
       </c>
       <c r="J44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2770,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2786,21 +2783,21 @@
       </c>
       <c r="H45" t="str" cm="1">
         <f t="array" ref="H45">INDEX(labels!$E$1:$E$100,MATCH(C45&amp;D45&amp;G45&amp;A45,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Anom. de Precipitação (°C)</v>
+        <v>Anom. de Temperatura (°C)</v>
       </c>
       <c r="I45" t="str">
-        <f>_xlfn.CONCAT(B45,"-",C45,IF(D45,"_anom",""),"-",E45,"_to_",F45,"-",G45,"-",A45,".png")</f>
+        <f t="shared" si="3"/>
         <v>europe-tavg_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2808,7 +2805,7 @@
         <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D46" t="b">
         <v>0</v>
@@ -2827,18 +2824,18 @@
         <v>Precipitação (mm/dia)</v>
       </c>
       <c r="I46" t="str">
-        <f>_xlfn.CONCAT(B46,"-",C46,IF(D46,"_anom",""),"-",E46,"_to_",F46,"-",G46,"-",A46,".png")</f>
+        <f t="shared" si="3"/>
         <v>india-precip-1_to_14-metric-pt.png</v>
       </c>
       <c r="J46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2846,7 +2843,7 @@
         <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -2865,18 +2862,18 @@
         <v>Anom. de Precipitação (mm/dia)</v>
       </c>
       <c r="I47" t="str">
-        <f>_xlfn.CONCAT(B47,"-",C47,IF(D47,"_anom",""),"-",E47,"_to_",F47,"-",G47,"-",A47,".png")</f>
+        <f t="shared" si="3"/>
         <v>india-precip_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2884,7 +2881,7 @@
         <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -2903,18 +2900,18 @@
         <v>Temperatura (°C)</v>
       </c>
       <c r="I48" t="str">
-        <f>_xlfn.CONCAT(B48,"-",C48,IF(D48,"_anom",""),"-",E48,"_to_",F48,"-",G48,"-",A48,".png")</f>
+        <f t="shared" si="3"/>
         <v>india-tavg-1_to_14-metric-pt.png</v>
       </c>
       <c r="J48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2922,7 +2919,7 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D49" t="b">
         <v>1</v>
@@ -2938,21 +2935,21 @@
       </c>
       <c r="H49" t="str" cm="1">
         <f t="array" ref="H49">INDEX(labels!$E$1:$E$100,MATCH(C49&amp;D49&amp;G49&amp;A49,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Anom. de Precipitação (°C)</v>
+        <v>Anom. de Temperatura (°C)</v>
       </c>
       <c r="I49" t="str">
-        <f>_xlfn.CONCAT(B49,"-",C49,IF(D49,"_anom",""),"-",E49,"_to_",F49,"-",G49,"-",A49,".png")</f>
+        <f t="shared" si="3"/>
         <v>india-tavg_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2960,7 +2957,7 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -2979,18 +2976,18 @@
         <v>Precipitação (mm/dia)</v>
       </c>
       <c r="I50" t="str">
-        <f>_xlfn.CONCAT(B50,"-",C50,IF(D50,"_anom",""),"-",E50,"_to_",F50,"-",G50,"-",A50,".png")</f>
+        <f t="shared" si="3"/>
         <v>southeast_asia-precip-1_to_14-metric-pt.png</v>
       </c>
       <c r="J50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -2998,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D51" t="b">
         <v>1</v>
@@ -3017,18 +3014,18 @@
         <v>Anom. de Precipitação (mm/dia)</v>
       </c>
       <c r="I51" t="str">
-        <f>_xlfn.CONCAT(B51,"-",C51,IF(D51,"_anom",""),"-",E51,"_to_",F51,"-",G51,"-",A51,".png")</f>
+        <f t="shared" si="3"/>
         <v>southeast_asia-precip_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3036,7 +3033,7 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -3055,18 +3052,18 @@
         <v>Temperatura (°C)</v>
       </c>
       <c r="I52" t="str">
-        <f>_xlfn.CONCAT(B52,"-",C52,IF(D52,"_anom",""),"-",E52,"_to_",F52,"-",G52,"-",A52,".png")</f>
+        <f t="shared" si="3"/>
         <v>southeast_asia-tavg-1_to_14-metric-pt.png</v>
       </c>
       <c r="J52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3074,7 +3071,7 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D53" t="b">
         <v>1</v>
@@ -3090,21 +3087,21 @@
       </c>
       <c r="H53" t="str" cm="1">
         <f t="array" ref="H53">INDEX(labels!$E$1:$E$100,MATCH(C53&amp;D53&amp;G53&amp;A53,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Anom. de Precipitação (°C)</v>
+        <v>Anom. de Temperatura (°C)</v>
       </c>
       <c r="I53" t="str">
-        <f>_xlfn.CONCAT(B53,"-",C53,IF(D53,"_anom",""),"-",E53,"_to_",F53,"-",G53,"-",A53,".png")</f>
+        <f t="shared" si="3"/>
         <v>southeast_asia-tavg_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -3112,7 +3109,7 @@
         <v>35</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -3131,18 +3128,18 @@
         <v>Precipitação (mm/dia)</v>
       </c>
       <c r="I54" t="str">
-        <f>_xlfn.CONCAT(B54,"-",C54,IF(D54,"_anom",""),"-",E54,"_to_",F54,"-",G54,"-",A54,".png")</f>
+        <f t="shared" si="3"/>
         <v>australia-precip-1_to_14-metric-pt.png</v>
       </c>
       <c r="J54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -3169,18 +3166,18 @@
         <v>Anom. de Precipitação (mm/dia)</v>
       </c>
       <c r="I55" t="str">
-        <f>_xlfn.CONCAT(B55,"-",C55,IF(D55,"_anom",""),"-",E55,"_to_",F55,"-",G55,"-",A55,".png")</f>
+        <f t="shared" si="3"/>
         <v>australia-precip_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3188,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -3207,18 +3204,18 @@
         <v>Temperatura (°C)</v>
       </c>
       <c r="I56" t="str">
-        <f>_xlfn.CONCAT(B56,"-",C56,IF(D56,"_anom",""),"-",E56,"_to_",F56,"-",G56,"-",A56,".png")</f>
+        <f t="shared" si="3"/>
         <v>australia-tavg-1_to_14-metric-pt.png</v>
       </c>
       <c r="J56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3226,7 +3223,7 @@
         <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -3242,14 +3239,14 @@
       </c>
       <c r="H57" t="str" cm="1">
         <f t="array" ref="H57">INDEX(labels!$E$1:$E$100,MATCH(C57&amp;D57&amp;G57&amp;A57,labels!$A$1:$A$100&amp;labels!$B$1:$B$100&amp;labels!$C$1:$C$100&amp;labels!$D$1:$D$100,0))</f>
-        <v>Anom. de Precipitação (°C)</v>
+        <v>Anom. de Temperatura (°C)</v>
       </c>
       <c r="I57" t="str">
-        <f>_xlfn.CONCAT(B57,"-",C57,IF(D57,"_anom",""),"-",E57,"_to_",F57,"-",G57,"-",A57,".png")</f>
+        <f t="shared" si="3"/>
         <v>australia-tavg_anom-1_to_14-metric-pt.png</v>
       </c>
       <c r="J57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="K57">
@@ -3265,33 +3262,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A49493-ADDC-46F8-955E-55C7525ABB7C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -3306,9 +3305,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -3323,9 +3322,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -3340,9 +3339,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -3357,9 +3356,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3374,9 +3373,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3391,9 +3390,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3405,12 +3404,12 @@
         <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3422,12 +3421,12 @@
         <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -3442,9 +3441,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -3459,9 +3458,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -3476,9 +3475,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -3493,9 +3492,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3510,9 +3509,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3527,9 +3526,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3541,12 +3540,12 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3558,12 +3557,12 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3578,9 +3577,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3595,9 +3594,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B20" t="b">
         <v>0</v>
@@ -3612,9 +3611,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B21" t="b">
         <v>0</v>
@@ -3629,9 +3628,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B22" t="b">
         <v>1</v>
@@ -3646,9 +3645,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
@@ -3663,9 +3662,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
@@ -3677,12 +3676,12 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B25" t="b">
         <v>1</v>
@@ -3694,26 +3693,18 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E25" xr:uid="{90A49493-ADDC-46F8-955E-55C7525ABB7C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F1EFB4E7EEDD44F879E5556C14848C8" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b1cb2c43e8d7a0584cac15c2c42cc73">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6747c5eb-5e85-4bf4-8db9-975577225647" xmlns:ns3="bc195dbd-1afa-4858-a9f9-68bc485f407b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5458e6c419c238ded59d72ac455462b6" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F1EFB4E7EEDD44F879E5556C14848C8" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2be3dec3ea9385460aa6048ae2f0c5d6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6747c5eb-5e85-4bf4-8db9-975577225647" xmlns:ns3="bc195dbd-1afa-4858-a9f9-68bc485f407b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b18098312ee76b7e92c9cdc012223d5b" ns2:_="" ns3:_="">
     <xsd:import namespace="6747c5eb-5e85-4bf4-8db9-975577225647"/>
     <xsd:import namespace="bc195dbd-1afa-4858-a9f9-68bc485f407b"/>
     <xsd:element name="properties">
@@ -3738,6 +3729,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3817,6 +3809,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3960,16 +3957,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0FB652-BB90-4969-803C-B11B89D6DB4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12431247-DCE7-44D7-9572-8E36A5D004CE}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB9EA91-1BAC-41CD-AA27-B3A8C49C5AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -3985,4 +3983,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0FB652-BB90-4969-803C-B11B89D6DB4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/references/configurations.xlsx
+++ b/references/configurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hedgepointglobal.sharepoint.com/sites/Hedgepoint-MarketIntelligence/Shared Documents/RMI/Workspace/weather-forecasts/references/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E739A532-5270-44F0-8B6C-53FBC045B90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87B1E358-24B4-4294-9FF6-5A5BDCB88173}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{E739A532-5270-44F0-8B6C-53FBC045B90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{017E0BCB-EA3B-42D3-93CB-AD382445D25D}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4785" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="312" windowWidth="30936" windowHeight="16476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -640,15 +640,15 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -966,15 +966,15 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -982,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -990,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -998,7 +998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1079,19 +1079,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC0E62-3784-4140-B137-130D5ED12C51}">
   <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3262,16 +3262,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A49493-ADDC-46F8-955E-55C7525ABB7C}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3703,6 +3703,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F1EFB4E7EEDD44F879E5556C14848C8" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2be3dec3ea9385460aa6048ae2f0c5d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6747c5eb-5e85-4bf4-8db9-975577225647" xmlns:ns3="bc195dbd-1afa-4858-a9f9-68bc485f407b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b18098312ee76b7e92c9cdc012223d5b" ns2:_="" ns3:_="">
     <xsd:import namespace="6747c5eb-5e85-4bf4-8db9-975577225647"/>
@@ -3957,16 +3966,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0FB652-BB90-4969-803C-B11B89D6DB4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB9EA91-1BAC-41CD-AA27-B3A8C49C5AD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3983,12 +3991,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0FB652-BB90-4969-803C-B11B89D6DB4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>